--- a/biology/Botanique/Glehnia/Glehnia.xlsx
+++ b/biology/Botanique/Glehnia/Glehnia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glehnia est un genre de plantes à fleurs de la famille des Apiaceae. Deux espèces y ont été classées : Glehnia leiocarpa et Glehnia littoralis. Une seule est acceptée, répartie sur les côtes nord du Pacifique : G. leiocarpa est considérée comme une sous-espèce américaine de G. littoralis.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des taxons de rang inférieur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon la WCVP[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon la WCVP :
 Glehnia leiocarpa Mathias, synonyme de Glehnia littoralis subsp. leiocarpa (Mathias) Hultén
 Glehnia littoralis (A.Gray) F.Schmidt ex Miq., nom correct
 Glehnia littoralis subsp. leiocarpa (Mathias) Hultén, nom correct
@@ -546,10 +560,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est décrit en 1867 par le botaniste néerlandais Friedrich Anton Wilhelm Miquel, à partir des travaux du botaniste russe Friedrich Schmidt[1].
-Le genre Phellopterus Benth. est synonyme de Glehnia[1],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est décrit en 1867 par le botaniste néerlandais Friedrich Anton Wilhelm Miquel, à partir des travaux du botaniste russe Friedrich Schmidt.
+Le genre Phellopterus Benth. est synonyme de Glehnia,.
 </t>
         </is>
       </c>
